--- a/Data/WFMSchedulePlanner.xlsx
+++ b/Data/WFMSchedulePlanner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F83758-BF0C-4668-B815-95FAD0C8BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA303FE-91EB-4683-9798-44537C3837E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -450,6 +450,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10648753</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
